--- a/biology/Zoologie/Argyrodes/Argyrodes.xlsx
+++ b/biology/Zoologie/Argyrodes/Argyrodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrodes est un genre d'araignées aranéomorphes de la famille des Theridiidae[1]. Ses nombreuses espèces présentes sur l'ensemble des continents ont pour stratégie générale l'exploitation d'autres araignées, soit en utilisant leur toile, soit en volant leur nourriture, soit en s'attaquant directement à elles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrodes est un genre d'araignées aranéomorphes de la famille des Theridiidae. Ses nombreuses espèces présentes sur l'ensemble des continents ont pour stratégie générale l'exploitation d'autres araignées, soit en utilisant leur toile, soit en volant leur nourriture, soit en s'attaquant directement à elles.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se trouvent en Asie, en Afrique, en Amérique, dans le sud de l'Europe et en Océanie[1], principalement en zones tropicale et subtropicale[2].
-Seules deux espèces sont présentes sur le continent européen[3] : Argyrodes argyrodes (Walckenaer, 1841) et Argyrodes incertus Wunderlich, 1987. Néanmoins, plusieurs espèces de ce continent appartenant au genre Argyrodes ont été recombinées dans les années 2000 : Argyrodes nasicus (Simon, 1873) est devenue Rhomphaea nasica (Simon, 1873), Argyrodes rostratus (Simon, 1873) est devenue Rhomphaea rostrata (Simon, 1873), Argyrodes syriacus O. Pickard-Cambridge, 1872 est devenue Neospintharus syriacus (O. Pickard-Cambridge, 1872) et Argyrodes longicaudatus (O. Pickard-Cambridge, 1872) est devenue Rhomphaea longicaudata O. Pickard-Cambridge, 1872[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se trouvent en Asie, en Afrique, en Amérique, dans le sud de l'Europe et en Océanie, principalement en zones tropicale et subtropicale.
+Seules deux espèces sont présentes sur le continent européen : Argyrodes argyrodes (Walckenaer, 1841) et Argyrodes incertus Wunderlich, 1987. Néanmoins, plusieurs espèces de ce continent appartenant au genre Argyrodes ont été recombinées dans les années 2000 : Argyrodes nasicus (Simon, 1873) est devenue Rhomphaea nasica (Simon, 1873), Argyrodes rostratus (Simon, 1873) est devenue Rhomphaea rostrata (Simon, 1873), Argyrodes syriacus O. Pickard-Cambridge, 1872 est devenue Neospintharus syriacus (O. Pickard-Cambridge, 1872) et Argyrodes longicaudatus (O. Pickard-Cambridge, 1872) est devenue Rhomphaea longicaudata O. Pickard-Cambridge, 1872,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Argyrodes sont de petite taille (3 à 12 mm), leurs pattes sont grêles et possèdent un opisthosoma (abdomen) plus ou moins conique, ou au contraire, très allongé, souvent incliné vers l'arrière chez le mâle et plus élevé chez la femelle, parfois pourvu de tubercules. Cet abdomen peut briller d'un vif éclat métallique grâce à la guanine des cellules intestinales perçues à travers le tégument[4].
-Au sein de la famille des Theridiidae, le genre Argyrodes se différencie formellement grâce à la présence d'un cololosus portant des soies, une minuscule excroissance abdominale et ventrale présente à proximité immédiate des filières. Cylindrique et difficilement visible, il est considéré comme un élément vestigial en opposition au cribellum — situé au même endroit — caractéristique des espèces construisant des toiles géométriques[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Argyrodes sont de petite taille (3 à 12 mm), leurs pattes sont grêles et possèdent un opisthosoma (abdomen) plus ou moins conique, ou au contraire, très allongé, souvent incliné vers l'arrière chez le mâle et plus élevé chez la femelle, parfois pourvu de tubercules. Cet abdomen peut briller d'un vif éclat métallique grâce à la guanine des cellules intestinales perçues à travers le tégument.
+Au sein de la famille des Theridiidae, le genre Argyrodes se différencie formellement grâce à la présence d'un cololosus portant des soies, une minuscule excroissance abdominale et ventrale présente à proximité immédiate des filières. Cylindrique et difficilement visible, il est considéré comme un élément vestigial en opposition au cribellum — situé au même endroit — caractéristique des espèces construisant des toiles géométriques.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Comportements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les araignées du genre Argyrodes présentent des stratégies écologiques commensale, en vivant sur le bord de la toile d'une autre araignée ou sur une petite toile irrégulière à proximité ; cleptoparasite, en volant ses proies stockées ou délaissées ; et parfois aranéophagique, en tuant l'araignée pour s'en nourrir[5],[6]. Plusieurs Argyrodes peuvent habiter la même toile dans une coexistence relativement pacifique[7]. Leurs hôtes appartiennent très souvent au genre Nephila et apparentés[5], telle la Néphile à soie dorée[8]. Ces caractéristiques comportementales sont corrélées avec des clades monophylétiques cohérents au sein du genre[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les araignées du genre Argyrodes présentent des stratégies écologiques commensale, en vivant sur le bord de la toile d'une autre araignée ou sur une petite toile irrégulière à proximité ; cleptoparasite, en volant ses proies stockées ou délaissées ; et parfois aranéophagique, en tuant l'araignée pour s'en nourrir,. Plusieurs Argyrodes peuvent habiter la même toile dans une coexistence relativement pacifique. Leurs hôtes appartiennent très souvent au genre Nephila et apparentés, telle la Néphile à soie dorée. Ces caractéristiques comportementales sont corrélées avec des clades monophylétiques cohérents au sein du genre.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 08/05/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 08/05/2024) :
 Argyrodes abscissus O. Pickard-Cambridge, 1880
 Argyrodes alannae Grostal, 1999
 Argyrodes ambalikae Tikader, 1970
@@ -695,7 +715,7 @@
 Argyrodes yunnanensis Xu, Yin &amp; Kim, 2000
 Argyrodes zhui Zhu &amp; Song, 1991
 Argyrodes zonatus (Walckenaer, 1841)
-Selon World Spider Catalog (version 23.5, 2023)[9] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Argyrodes parvipatellaris Wunderlich, 1988</t>
         </is>
       </c>
@@ -724,11 +744,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est décrit par l'arachnologue français Eugène Simon en 1864.
-Conopistha Karsch, 1881[10] et Argyrodina Strand, 1928[11] ont été placés en synonymie par Levi et Levi en 1962[12]. Microcephalus Restrepo, 1944[13] a été placé en synonymie par Levi en 1972[14].
-Dans les années 2000, le genre Argyrodes est scindé en plusieurs genres proches sur leurs bases génétiques, notamment Ariamnes Thorell, 1869, Neospintharus Exline, 1950 et Rhomphaea L. Koch, 1872[2].
+Conopistha Karsch, 1881 et Argyrodina Strand, 1928 ont été placés en synonymie par Levi et Levi en 1962. Microcephalus Restrepo, 1944 a été placé en synonymie par Levi en 1972.
+Dans les années 2000, le genre Argyrodes est scindé en plusieurs genres proches sur leurs bases génétiques, notamment Ariamnes Thorell, 1869, Neospintharus Exline, 1950 et Rhomphaea L. Koch, 1872.
 </t>
         </is>
       </c>
@@ -757,9 +779,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot Argyrodes provient du grec ancien αργυρος (« argent ») et οιδος (« gonflé »)[15]. Comme l'anglophone dewdrop spiders (« araignées goutte de rosée »), il fait référence à la forme et l'aspect brillant de leur abdomen[16].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot Argyrodes provient du grec ancien αργυρος (« argent ») et οιδος (« gonflé »). Comme l'anglophone dewdrop spiders (« araignées goutte de rosée »), il fait référence à la forme et l'aspect brillant de leur abdomen.
 </t>
         </is>
       </c>
@@ -788,7 +812,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Simon, 1864 : Histoire naturelle des araignées (aranéides). Paris, p. 1-540 (texte intégral).</t>
         </is>
